--- a/export_data/业绩报表检查.xlsx
+++ b/export_data/业绩报表检查.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PycharmProjects\GitHub\test\export_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E547B59C-047D-431E-82E9-982A12B4D61F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="6720"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="6720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报表模板参照" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>渠道</t>
   </si>
@@ -98,9 +104,6 @@
   </si>
   <si>
     <t>保交所退保</t>
-  </si>
-  <si>
-    <t>建信E保</t>
   </si>
   <si>
     <t>备注： 1、电商渠道退保交易不会区分官网、微信和悦生活，在统计所有的交易量及退保量时为合并格式；
@@ -112,9 +115,6 @@
        7、团险退保量统计分单退保</t>
   </si>
   <si>
-    <t>其他建行</t>
-  </si>
-  <si>
     <t>电商</t>
   </si>
   <si>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
@@ -476,6 +476,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -483,22 +489,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -620,7 +623,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -662,7 +665,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,9 +698,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,6 +750,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -905,10 +942,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:I24"/>
     </sheetView>
   </sheetViews>
@@ -942,10 +979,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
@@ -961,13 +998,13 @@
       </c>
       <c r="C3" s="4">
         <f>IFERROR(VLOOKUP(B3,总量!$C:$D,2,FALSE),0)</f>
-        <v>1708</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
         <f>IFERROR(VLOOKUP(B3,承保!$B:$D,2,FALSE),0)</f>
         <v>10</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="40">
         <f>IFERROR(VLOOKUP(B3,承保!$B:$D,3,FALSE),0)</f>
         <v>3257600</v>
       </c>
@@ -975,7 +1012,7 @@
         <f>IFERROR(VLOOKUP(B3,承保!$B:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="40">
         <f>IFERROR(VLOOKUP(B3,承保!$B:$F,5,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -983,7 +1020,7 @@
         <f>IFERROR(VLOOKUP(B3,退保!$B:$D,2,FALSE),0)</f>
         <v>90</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="40">
         <f>IFERROR(VLOOKUP(B3,退保!$B:$D,3,FALSE),0)</f>
         <v>13491151.630000001</v>
       </c>
@@ -995,13 +1032,13 @@
       </c>
       <c r="C4" s="4">
         <f>IFERROR(VLOOKUP(B4,总量!$C:$D,2,FALSE),0)</f>
-        <v>5557</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
         <f>IFERROR(VLOOKUP(B4,承保!$B:$D,2,FALSE),0)</f>
         <v>795</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="40">
         <f>IFERROR(VLOOKUP(B4,承保!$B:$D,3,FALSE),0)</f>
         <v>73633308</v>
       </c>
@@ -1009,7 +1046,7 @@
         <f>IFERROR(VLOOKUP(B4,承保!$B:$F,4,FALSE),0)</f>
         <v>19</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="40">
         <f>IFERROR(VLOOKUP(B4,承保!$B:$F,5,FALSE),0)</f>
         <v>4540000</v>
       </c>
@@ -1017,7 +1054,7 @@
         <f>IFERROR(VLOOKUP(B4,退保!$B:$D,2,FALSE),0)</f>
         <v>25</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="40">
         <f>IFERROR(VLOOKUP(B4,退保!$B:$D,3,FALSE),0)</f>
         <v>79073.89</v>
       </c>
@@ -1029,13 +1066,13 @@
       </c>
       <c r="C5" s="4">
         <f>IFERROR(VLOOKUP(B5,总量!$C:$D,2,FALSE),0)</f>
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
         <f>IFERROR(VLOOKUP(B5,承保!$B:$D,2,FALSE),0)</f>
         <v>103</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="40">
         <f>IFERROR(VLOOKUP(B5,承保!$B:$D,3,FALSE),0)</f>
         <v>8787357.5</v>
       </c>
@@ -1043,7 +1080,7 @@
         <f>IFERROR(VLOOKUP(B5,承保!$B:$F,4,FALSE),0)</f>
         <v>8</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="40">
         <f>IFERROR(VLOOKUP(B5,承保!$B:$F,5,FALSE),0)</f>
         <v>739000</v>
       </c>
@@ -1051,7 +1088,7 @@
         <f>IFERROR(VLOOKUP(B5,退保!$B:$D,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="40">
         <f>IFERROR(VLOOKUP(B5,退保!$B:$D,3,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1063,13 +1100,13 @@
       </c>
       <c r="C6" s="4">
         <f>IFERROR(VLOOKUP(B6,总量!$C:$D,2,FALSE),0)</f>
-        <v>3631</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
         <f>IFERROR(VLOOKUP(B6,承保!$B:$D,2,FALSE),0)</f>
         <v>989</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="40">
         <f>IFERROR(VLOOKUP(B6,承保!$B:$D,3,FALSE),0)</f>
         <v>93259516.200000003</v>
       </c>
@@ -1077,7 +1114,7 @@
         <f>IFERROR(VLOOKUP(B6,承保!$B:$F,4,FALSE),0)</f>
         <v>10</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="40">
         <f>IFERROR(VLOOKUP(B6,承保!$B:$F,5,FALSE),0)</f>
         <v>1638000</v>
       </c>
@@ -1085,7 +1122,7 @@
         <f>IFERROR(VLOOKUP(B6,退保!$B:$D,2,FALSE),0)</f>
         <v>169</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="40">
         <f>IFERROR(VLOOKUP(B6,退保!$B:$D,3,FALSE),0)</f>
         <v>18667060</v>
       </c>
@@ -1099,13 +1136,13 @@
       </c>
       <c r="C7" s="4">
         <f>IFERROR(VLOOKUP(B7,总量!$C:$D,2,FALSE),0)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
         <f>IFERROR(VLOOKUP(B7,承保!$B:$D,2,FALSE),0)</f>
         <v>10</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="40">
         <f>IFERROR(VLOOKUP(B7,承保!$B:$D,3,FALSE),0)</f>
         <v>1380</v>
       </c>
@@ -1113,7 +1150,7 @@
         <f>IFERROR(VLOOKUP(B7,承保!$B:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="40">
         <f>IFERROR(VLOOKUP(B7,承保!$B:$F,5,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1121,7 +1158,7 @@
         <f>IFERROR(VLOOKUP(B7,退保!$B:$D,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="40">
         <f>IFERROR(VLOOKUP(B7,退保!$B:$D,3,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1139,7 +1176,7 @@
         <f>IFERROR(VLOOKUP(B8,承保!$B:$D,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="40">
         <f>IFERROR(VLOOKUP(B8,承保!$B:$D,3,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1147,7 +1184,7 @@
         <f>IFERROR(VLOOKUP(B8,承保!$B:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="40">
         <f>IFERROR(VLOOKUP(B8,承保!$B:$F,5,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1155,7 +1192,7 @@
         <f>IFERROR(VLOOKUP(B8,退保!$B:$D,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="40">
         <f>IFERROR(VLOOKUP(B8,退保!$B:$D,3,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1173,7 +1210,7 @@
         <f>IFERROR(VLOOKUP(B9,承保!$B:$D,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="40">
         <f>IFERROR(VLOOKUP(B9,承保!$B:$D,3,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1181,7 +1218,7 @@
         <f>IFERROR(VLOOKUP(B9,承保!$B:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="40">
         <f>IFERROR(VLOOKUP(B9,承保!$B:$F,5,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1189,7 +1226,7 @@
         <f>IFERROR(VLOOKUP(B9,退保!$B:$D,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="40">
         <f>IFERROR(VLOOKUP(B9,退保!$B:$D,3,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1201,13 +1238,13 @@
       </c>
       <c r="C10" s="4">
         <f>IFERROR(VLOOKUP(B10,总量!$C:$D,2,FALSE),0)</f>
-        <v>877</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4">
         <f>IFERROR(VLOOKUP(B10,承保!$B:$D,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="40">
         <f>IFERROR(VLOOKUP(B10,承保!$B:$D,3,FALSE),0)</f>
         <v>3640</v>
       </c>
@@ -1215,7 +1252,7 @@
         <f>IFERROR(VLOOKUP(B10,承保!$B:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="40">
         <f>IFERROR(VLOOKUP(B10,承保!$B:$F,5,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1223,7 +1260,7 @@
         <f>IFERROR(VLOOKUP(B10,退保!$B:$D,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="40">
         <f>IFERROR(VLOOKUP(B10,退保!$B:$D,3,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1235,7 +1272,7 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" ref="C11:I11" si="0">SUM(C3:C10)</f>
-        <v>12388</v>
+        <v>0</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
@@ -1296,7 +1333,7 @@
       </c>
       <c r="C13" s="38">
         <f>IFERROR(VLOOKUP("电商",总量!$C:$D,2,FALSE),0)</f>
-        <v>3029</v>
+        <v>0</v>
       </c>
       <c r="D13" s="20">
         <f>IFERROR(VLOOKUP("电商微信",承保!$B:$D,2,FALSE),0)</f>
@@ -1450,9 +1487,9 @@
       <c r="B18" s="3"/>
       <c r="C18" s="12"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="44"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="20">
         <f>IFERROR(VLOOKUP("保交所退保",[1]ALL!I:K,2,FALSE),0)</f>
         <v>0</v>
@@ -1464,12 +1501,12 @@
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="4">
         <f>IFERROR(VLOOKUP("建信E保",总量!$C:$D,2,FALSE),0)</f>
-        <v>26199</v>
+        <v>0</v>
       </c>
       <c r="D19" s="24">
         <f>IFERROR(VLOOKUP("建信E保承保",承保!$B:$D,2,FALSE),0)</f>
@@ -1503,7 +1540,7 @@
       <c r="B20" s="18"/>
       <c r="C20" s="8">
         <f t="shared" ref="C20:I20" si="1">SUM(C11:C19)</f>
-        <v>41616</v>
+        <v>0</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="1"/>
@@ -1531,39 +1568,39 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="A22" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="42"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1577,11 +1614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1604,162 +1641,90 @@
       <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33">
-        <v>43467</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="34">
-        <v>5557</v>
-      </c>
+      <c r="A2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33">
-        <v>43467</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="34">
-        <v>26199</v>
-      </c>
+      <c r="A3" s="34"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33">
-        <v>43467</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="34">
-        <v>1708</v>
-      </c>
+      <c r="A4" s="34"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33">
-        <v>43467</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="34">
-        <v>1195</v>
-      </c>
+      <c r="A5" s="34"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33">
-        <v>43467</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="34">
-        <v>24</v>
-      </c>
+      <c r="A6" s="34"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33">
-        <v>43467</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="34">
-        <v>877</v>
-      </c>
+      <c r="A7" s="34"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34">
-        <v>7</v>
-      </c>
-      <c r="B8" s="33">
-        <v>43467</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="34">
-        <v>3029</v>
-      </c>
+      <c r="A8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33">
-        <v>43467</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="34">
-        <v>3631</v>
-      </c>
+      <c r="A9" s="34"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35">
-        <v>9</v>
-      </c>
-      <c r="B10" s="33">
-        <v>43467</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="34">
-        <v>591</v>
-      </c>
+      <c r="A10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -1833,7 +1798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1850,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1870,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>56</v>
@@ -1890,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>184</v>
@@ -2010,7 +1975,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2050,7 +2015,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2067,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>258</v>
@@ -2087,7 +2052,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -2107,7 +2072,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>284</v>
@@ -2129,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2146,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="39">
         <v>38</v>
@@ -2202,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="39">
         <v>21</v>
@@ -2216,7 +2181,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="39">
         <v>11</v>
@@ -2230,7 +2195,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="39">
         <v>4</v>
@@ -2244,7 +2209,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="39">
         <v>292</v>
